--- a/data/trans_dic/P36BPD13_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,09; 94,92</t>
+          <t>82,43; 94,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,92; 95,59</t>
+          <t>82,96; 95,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,18; 94,44</t>
+          <t>85,64; 94,17</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 94,11</t>
+          <t>88,52; 94,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,69; 94,56</t>
+          <t>90,7; 94,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,52; 93,82</t>
+          <t>90,45; 93,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,03; 90,54</t>
+          <t>85,36; 90,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,3; 91,57</t>
+          <t>88,25; 91,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,29; 90,45</t>
+          <t>87,47; 90,53</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,71; 75,98</t>
+          <t>68,6; 76,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,15; 89,91</t>
+          <t>81,38; 90,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,58; 83,75</t>
+          <t>76,42; 83,42</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,32; 87,45</t>
+          <t>82,34; 87,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,67; 88,51</t>
+          <t>84,49; 88,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,18; 87,43</t>
+          <t>84,38; 87,56</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,98; 86,08</t>
+          <t>83,1; 86,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,2; 89,56</t>
+          <t>87,24; 89,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,61; 87,48</t>
+          <t>85,58; 87,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD13_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>92,12%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,43; 94,67</t>
+          <t>88,64; 93,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,96; 95,61</t>
+          <t>90,63; 94,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,64; 94,17</t>
+          <t>90,43; 93,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>89,99%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,52; 94,12</t>
+          <t>86,46; 94,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,7; 94,6</t>
+          <t>88,27; 91,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,45; 93,92</t>
+          <t>87,99; 93,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,96%</t>
+          <t>72,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>80,83%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,36; 90,43</t>
+          <t>68,8; 76,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,25; 91,64</t>
+          <t>82,21; 93,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,47; 90,53</t>
+          <t>77,2; 88,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>84,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>86,23%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,6; 76,28</t>
+          <t>81,82; 87,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,38; 90,1</t>
+          <t>85,29; 89,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,42; 83,42</t>
+          <t>84,51; 88,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>87,21%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,34; 87,52</t>
+          <t>83,57; 88,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,49; 88,53</t>
+          <t>87,66; 90,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,38; 87,56</t>
+          <t>86,12; 88,84</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>84,5%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>88,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>86,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>83,1; 86,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>87,24; 89,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>85,58; 87,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36BPD13_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,64; 93,58</t>
+          <t>88,68; 93,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,63; 94,13</t>
+          <t>90,89; 94,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,43; 93,48</t>
+          <t>90,48; 93,51</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,46; 94,7</t>
+          <t>86,3; 94,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,27; 91,64</t>
+          <t>88,22; 91,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,99; 93,33</t>
+          <t>88,04; 93,32</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,8; 76,54</t>
+          <t>68,74; 76,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,21; 93,38</t>
+          <t>82,19; 93,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,2; 88,09</t>
+          <t>77,19; 87,73</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,82; 87,31</t>
+          <t>82,29; 87,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,29; 89,96</t>
+          <t>85,37; 90,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,51; 88,11</t>
+          <t>84,4; 87,89</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,48</t>
+          <t>83,6; 88,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,66; 90,99</t>
+          <t>87,73; 90,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,12; 88,84</t>
+          <t>86,04; 89,2</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1826</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>579029</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>621396</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1200426</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>561183; 593540</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>609329; 632298</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1179096; 1218569</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1067809</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>858498</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1926307</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1025407; 1125171</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>840233; 873793</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1884586; 1997758</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>509461</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>805567</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1315028</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>481026; 534693</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>761911; 862455</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1255705; 1427284</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2203</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>780306</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>948196</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1728503</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>756257; 803942</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>926691; 979284</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1691733; 1761856</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2885</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7613</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2936605</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3233657</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6170262</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2875657; 3044662</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3189337; 3307672</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6087588; 6310817</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>